--- a/src/test/resources/ScrapeData/recipes_Diabetic.xlsx
+++ b/src/test/resources/ScrapeData/recipes_Diabetic.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="234">
   <si>
     <t>ReceipeID</t>
   </si>
@@ -1668,6 +1668,15 @@
   <si>
     <t>https://www.tarladalal.com/mexican-kodri--exotic-diabetic-recipe--33745r</t>
   </si>
+  <si>
+    <t>allergy item</t>
+  </si>
+  <si>
+    <t>Recomended item</t>
+  </si>
+  <si>
+    <t>Not Recomended item</t>
+  </si>
 </sst>
 </file>
 
@@ -1683,12 +1692,32 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1703,7 +1732,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="327">
+  <cellXfs count="397">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true"/>
@@ -2683,6 +2712,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -2758,6 +2857,12 @@
       <c r="I2" t="s" s="20">
         <v>18</v>
       </c>
+      <c r="J2" t="s" s="327">
+        <v>231</v>
+      </c>
+      <c r="K2" t="s" s="362">
+        <v>232</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="21">
@@ -2787,6 +2892,12 @@
       <c r="I3" t="s" s="29">
         <v>24</v>
       </c>
+      <c r="J3" t="s" s="328">
+        <v>231</v>
+      </c>
+      <c r="K3" t="s" s="363">
+        <v>233</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="30">
@@ -2816,6 +2927,12 @@
       <c r="I4" t="s" s="38">
         <v>32</v>
       </c>
+      <c r="J4" t="s" s="329">
+        <v>231</v>
+      </c>
+      <c r="K4" t="s" s="364">
+        <v>232</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="39">
@@ -2845,6 +2962,12 @@
       <c r="I5" t="s" s="47">
         <v>39</v>
       </c>
+      <c r="J5" t="s" s="330">
+        <v>231</v>
+      </c>
+      <c r="K5" t="s" s="365">
+        <v>232</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="48">
@@ -2874,6 +2997,12 @@
       <c r="I6" t="s" s="56">
         <v>45</v>
       </c>
+      <c r="J6" t="s" s="331">
+        <v>231</v>
+      </c>
+      <c r="K6" t="s" s="366">
+        <v>232</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="57">
@@ -2903,6 +3032,12 @@
       <c r="I7" t="s" s="65">
         <v>51</v>
       </c>
+      <c r="J7" t="s" s="332">
+        <v>231</v>
+      </c>
+      <c r="K7" t="s" s="367">
+        <v>233</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="66">
@@ -2932,6 +3067,12 @@
       <c r="I8" t="s" s="74">
         <v>58</v>
       </c>
+      <c r="J8" t="s" s="333">
+        <v>231</v>
+      </c>
+      <c r="K8" t="s" s="368">
+        <v>232</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="75">
@@ -2961,6 +3102,12 @@
       <c r="I9" t="s" s="83">
         <v>64</v>
       </c>
+      <c r="J9" t="s" s="334">
+        <v>231</v>
+      </c>
+      <c r="K9" t="s" s="369">
+        <v>232</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="84">
@@ -2990,6 +3137,12 @@
       <c r="I10" t="s" s="92">
         <v>71</v>
       </c>
+      <c r="J10" t="s" s="335">
+        <v>231</v>
+      </c>
+      <c r="K10" t="s" s="370">
+        <v>232</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="93">
@@ -3019,6 +3172,12 @@
       <c r="I11" t="s" s="101">
         <v>77</v>
       </c>
+      <c r="J11" t="s" s="336">
+        <v>231</v>
+      </c>
+      <c r="K11" t="s" s="371">
+        <v>232</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="102">
@@ -3048,6 +3207,12 @@
       <c r="I12" t="s" s="110">
         <v>83</v>
       </c>
+      <c r="J12" t="s" s="337">
+        <v>231</v>
+      </c>
+      <c r="K12" t="s" s="372">
+        <v>233</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="111">
@@ -3077,6 +3242,12 @@
       <c r="I13" t="s" s="119">
         <v>89</v>
       </c>
+      <c r="J13" t="s" s="338">
+        <v>231</v>
+      </c>
+      <c r="K13" t="s" s="373">
+        <v>232</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="120">
@@ -3106,6 +3277,12 @@
       <c r="I14" t="s" s="128">
         <v>96</v>
       </c>
+      <c r="J14" t="s" s="339">
+        <v>231</v>
+      </c>
+      <c r="K14" t="s" s="374">
+        <v>232</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="129">
@@ -3135,6 +3312,12 @@
       <c r="I15" t="s" s="137">
         <v>103</v>
       </c>
+      <c r="J15" t="s" s="340">
+        <v>231</v>
+      </c>
+      <c r="K15" t="s" s="375">
+        <v>232</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="138">
@@ -3164,6 +3347,12 @@
       <c r="I16" t="s" s="146">
         <v>109</v>
       </c>
+      <c r="J16" t="s" s="341">
+        <v>231</v>
+      </c>
+      <c r="K16" t="s" s="376">
+        <v>232</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="147">
@@ -3193,6 +3382,12 @@
       <c r="I17" t="s" s="155">
         <v>115</v>
       </c>
+      <c r="J17" t="s" s="342">
+        <v>231</v>
+      </c>
+      <c r="K17" t="s" s="377">
+        <v>233</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="156">
@@ -3222,6 +3417,12 @@
       <c r="I18" t="s" s="164">
         <v>122</v>
       </c>
+      <c r="J18" t="s" s="343">
+        <v>231</v>
+      </c>
+      <c r="K18" t="s" s="378">
+        <v>232</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="165">
@@ -3251,6 +3452,12 @@
       <c r="I19" t="s" s="173">
         <v>128</v>
       </c>
+      <c r="J19" t="s" s="344">
+        <v>231</v>
+      </c>
+      <c r="K19" t="s" s="379">
+        <v>233</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="174">
@@ -3280,6 +3487,12 @@
       <c r="I20" t="s" s="182">
         <v>135</v>
       </c>
+      <c r="J20" t="s" s="345">
+        <v>231</v>
+      </c>
+      <c r="K20" t="s" s="380">
+        <v>233</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="183">
@@ -3309,6 +3522,12 @@
       <c r="I21" t="s" s="191">
         <v>141</v>
       </c>
+      <c r="J21" t="s" s="346">
+        <v>231</v>
+      </c>
+      <c r="K21" t="s" s="381">
+        <v>232</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="192">
@@ -3338,6 +3557,12 @@
       <c r="I22" t="s" s="200">
         <v>147</v>
       </c>
+      <c r="J22" t="s" s="347">
+        <v>231</v>
+      </c>
+      <c r="K22" t="s" s="382">
+        <v>232</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="201">
@@ -3367,6 +3592,12 @@
       <c r="I23" t="s" s="209">
         <v>153</v>
       </c>
+      <c r="J23" t="s" s="348">
+        <v>231</v>
+      </c>
+      <c r="K23" t="s" s="383">
+        <v>233</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="210">
@@ -3396,6 +3627,12 @@
       <c r="I24" t="s" s="218">
         <v>159</v>
       </c>
+      <c r="J24" t="s" s="349">
+        <v>231</v>
+      </c>
+      <c r="K24" t="s" s="384">
+        <v>232</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="219">
@@ -3425,6 +3662,12 @@
       <c r="I25" t="s" s="227">
         <v>165</v>
       </c>
+      <c r="J25" t="s" s="350">
+        <v>231</v>
+      </c>
+      <c r="K25" t="s" s="385">
+        <v>232</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="228">
@@ -3454,6 +3697,12 @@
       <c r="I26" t="s" s="236">
         <v>171</v>
       </c>
+      <c r="J26" t="s" s="351">
+        <v>231</v>
+      </c>
+      <c r="K26" t="s" s="386">
+        <v>233</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="237">
@@ -3483,6 +3732,12 @@
       <c r="I27" t="s" s="245">
         <v>177</v>
       </c>
+      <c r="J27" t="s" s="352">
+        <v>231</v>
+      </c>
+      <c r="K27" t="s" s="387">
+        <v>232</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="246">
@@ -3512,6 +3767,12 @@
       <c r="I28" t="s" s="254">
         <v>183</v>
       </c>
+      <c r="J28" t="s" s="353">
+        <v>231</v>
+      </c>
+      <c r="K28" t="s" s="388">
+        <v>232</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="255">
@@ -3541,6 +3802,12 @@
       <c r="I29" t="s" s="263">
         <v>189</v>
       </c>
+      <c r="J29" t="s" s="354">
+        <v>231</v>
+      </c>
+      <c r="K29" t="s" s="389">
+        <v>232</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="264">
@@ -3570,6 +3837,12 @@
       <c r="I30" t="s" s="272">
         <v>195</v>
       </c>
+      <c r="J30" t="s" s="355">
+        <v>231</v>
+      </c>
+      <c r="K30" t="s" s="390">
+        <v>233</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="273">
@@ -3599,6 +3872,12 @@
       <c r="I31" t="s" s="281">
         <v>201</v>
       </c>
+      <c r="J31" t="s" s="356">
+        <v>231</v>
+      </c>
+      <c r="K31" t="s" s="391">
+        <v>232</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="282">
@@ -3628,6 +3907,12 @@
       <c r="I32" t="s" s="290">
         <v>208</v>
       </c>
+      <c r="J32" t="s" s="357">
+        <v>231</v>
+      </c>
+      <c r="K32" t="s" s="392">
+        <v>232</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="291">
@@ -3657,6 +3942,12 @@
       <c r="I33" t="s" s="299">
         <v>214</v>
       </c>
+      <c r="J33" t="s" s="358">
+        <v>231</v>
+      </c>
+      <c r="K33" t="s" s="393">
+        <v>233</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="300">
@@ -3686,6 +3977,12 @@
       <c r="I34" t="s" s="308">
         <v>219</v>
       </c>
+      <c r="J34" t="s" s="359">
+        <v>231</v>
+      </c>
+      <c r="K34" t="s" s="394">
+        <v>232</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="309">
@@ -3715,6 +4012,12 @@
       <c r="I35" t="s" s="317">
         <v>224</v>
       </c>
+      <c r="J35" t="s" s="360">
+        <v>231</v>
+      </c>
+      <c r="K35" t="s" s="395">
+        <v>232</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="318">
@@ -3743,6 +4046,12 @@
       </c>
       <c r="I36" t="s" s="326">
         <v>230</v>
+      </c>
+      <c r="J36" t="s" s="361">
+        <v>231</v>
+      </c>
+      <c r="K36" t="s" s="396">
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/ScrapeData/recipes_Diabetic.xlsx
+++ b/src/test/resources/ScrapeData/recipes_Diabetic.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="236">
   <si>
     <t>ReceipeID</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>33530</t>
+  </si>
+  <si>
+    <t>Ginger- Garlic Paste ( Popular Restaurant Recipes )</t>
   </si>
   <si>
     <t>ginger garlic paste recipe | homemade ginger garlic paste | how to make ginger garlic paste | how to store ginger garlic paste |</t>
@@ -446,6 +449,9 @@
     <t>33650</t>
   </si>
   <si>
+    <t>Vegetable and Basil Soup, Healthy Diabetic Recipe</t>
+  </si>
+  <si>
     <t>vegetable and basil soup recipe | healthy fresh vegetable basil soup | veg basil soup with garlic for diabetes | Indian vegetable soup with basil |</t>
   </si>
   <si>
@@ -675,6 +681,9 @@
   </si>
   <si>
     <t>33441</t>
+  </si>
+  <si>
+    <t>Aloo Chaat ( Mumbai Roadside Recipes )</t>
   </si>
   <si>
     <t>aloo chaat recipe | Mumbai roadside aloo chaat | Delhi aloo chaat |</t>
@@ -882,6 +891,9 @@
     <t>33478</t>
   </si>
   <si>
+    <t>Soya Bhurji ( Soya Granules Recipes)</t>
+  </si>
+  <si>
     <t>soya bhurji recipe | soya matar bhurji | soya bhurji from soya granules |</t>
   </si>
   <si>
@@ -1235,6 +1247,9 @@
     <t>41168</t>
   </si>
   <si>
+    <t>Flax Seed Shakarpara, Diabetic Friendly</t>
+  </si>
+  <si>
     <t>flax seed shakarpara recipe | Indian flax seeds crackers | flax seed biscuit | healthy flax seed snack |</t>
   </si>
   <si>
@@ -1668,15 +1683,6 @@
   <si>
     <t>https://www.tarladalal.com/mexican-kodri--exotic-diabetic-recipe--33745r</t>
   </si>
-  <si>
-    <t>allergy item</t>
-  </si>
-  <si>
-    <t>Recomended item</t>
-  </si>
-  <si>
-    <t>Not Recomended item</t>
-  </si>
 </sst>
 </file>
 
@@ -1692,32 +1698,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1732,7 +1718,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="397">
+  <cellXfs count="327">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true"/>
@@ -2712,76 +2698,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -2857,12 +2773,6 @@
       <c r="I2" t="s" s="20">
         <v>18</v>
       </c>
-      <c r="J2" t="s" s="327">
-        <v>231</v>
-      </c>
-      <c r="K2" t="s" s="362">
-        <v>232</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="21">
@@ -2872,10 +2782,10 @@
         <v>20</v>
       </c>
       <c r="C3" t="s" s="23">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s" s="24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s" s="25">
         <v>14</v>
@@ -2884,278 +2794,230 @@
         <v>15</v>
       </c>
       <c r="G3" t="s" s="27">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s" s="28">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s" s="29">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s" s="328">
-        <v>231</v>
-      </c>
-      <c r="K3" t="s" s="363">
-        <v>233</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="30">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s" s="31">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s" s="32">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s" s="33">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s" s="34">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s" s="35">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s" s="36">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s" s="37">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s" s="38">
-        <v>32</v>
-      </c>
-      <c r="J4" t="s" s="329">
-        <v>231</v>
-      </c>
-      <c r="K4" t="s" s="364">
-        <v>232</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="39">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s" s="40">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s" s="41">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s" s="42">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s" s="43">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s" s="44">
         <v>15</v>
       </c>
       <c r="G5" t="s" s="45">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s" s="46">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s" s="47">
-        <v>39</v>
-      </c>
-      <c r="J5" t="s" s="330">
-        <v>231</v>
-      </c>
-      <c r="K5" t="s" s="365">
-        <v>232</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="48">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s" s="49">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s" s="50">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s" s="51">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s" s="52">
         <v>14</v>
       </c>
       <c r="F6" t="s" s="53">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s" s="54">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s" s="55">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I6" t="s" s="56">
-        <v>45</v>
-      </c>
-      <c r="J6" t="s" s="331">
-        <v>231</v>
-      </c>
-      <c r="K6" t="s" s="366">
-        <v>232</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="57">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s" s="58">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s" s="59">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s" s="60">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s" s="61">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s" s="62">
         <v>29</v>
       </c>
-      <c r="F7" t="s" s="62">
-        <v>28</v>
-      </c>
       <c r="G7" t="s" s="63">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s" s="64">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I7" t="s" s="65">
-        <v>51</v>
-      </c>
-      <c r="J7" t="s" s="332">
-        <v>231</v>
-      </c>
-      <c r="K7" t="s" s="367">
-        <v>233</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="66">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s" s="67">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s" s="68">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s" s="69">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s" s="70">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s" s="71">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s" s="72">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H8" t="s" s="73">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I8" t="s" s="74">
-        <v>58</v>
-      </c>
-      <c r="J8" t="s" s="333">
-        <v>231</v>
-      </c>
-      <c r="K8" t="s" s="368">
-        <v>232</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="75">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s" s="76">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s" s="77">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s" s="78">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s" s="79">
         <v>14</v>
       </c>
       <c r="F9" t="s" s="80">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s" s="81">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s" s="82">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I9" t="s" s="83">
-        <v>64</v>
-      </c>
-      <c r="J9" t="s" s="334">
-        <v>231</v>
-      </c>
-      <c r="K9" t="s" s="369">
-        <v>232</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="84">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s" s="85">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s" s="86">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s" s="87">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s" s="88">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s" s="89">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s" s="90">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s" s="91">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I10" t="s" s="92">
-        <v>71</v>
-      </c>
-      <c r="J10" t="s" s="335">
-        <v>231</v>
-      </c>
-      <c r="K10" t="s" s="370">
-        <v>232</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="93">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s" s="94">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s" s="95">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s" s="96">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s" s="97">
         <v>15</v>
@@ -3164,208 +3026,172 @@
         <v>15</v>
       </c>
       <c r="G11" t="s" s="99">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s" s="100">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s" s="101">
-        <v>77</v>
-      </c>
-      <c r="J11" t="s" s="336">
-        <v>231</v>
-      </c>
-      <c r="K11" t="s" s="371">
-        <v>232</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="102">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s" s="103">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s" s="104">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s" s="105">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s" s="106">
         <v>14</v>
       </c>
       <c r="F12" t="s" s="107">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s" s="108">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s" s="109">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I12" t="s" s="110">
-        <v>83</v>
-      </c>
-      <c r="J12" t="s" s="337">
-        <v>231</v>
-      </c>
-      <c r="K12" t="s" s="372">
-        <v>233</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="111">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s" s="112">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s" s="113">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s" s="114">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s" s="115">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s" s="116">
         <v>29</v>
       </c>
-      <c r="F13" t="s" s="116">
-        <v>28</v>
-      </c>
       <c r="G13" t="s" s="117">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H13" t="s" s="118">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I13" t="s" s="119">
-        <v>89</v>
-      </c>
-      <c r="J13" t="s" s="338">
-        <v>231</v>
-      </c>
-      <c r="K13" t="s" s="373">
-        <v>232</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="120">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s" s="121">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s" s="122">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s" s="123">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E14" t="s" s="124">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F14" t="s" s="125">
         <v>15</v>
       </c>
       <c r="G14" t="s" s="126">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H14" t="s" s="127">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I14" t="s" s="128">
-        <v>96</v>
-      </c>
-      <c r="J14" t="s" s="339">
-        <v>231</v>
-      </c>
-      <c r="K14" t="s" s="374">
-        <v>232</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="129">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s" s="130">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s" s="131">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D15" t="s" s="132">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E15" t="s" s="133">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F15" t="s" s="134">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s" s="135">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H15" t="s" s="136">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I15" t="s" s="137">
-        <v>103</v>
-      </c>
-      <c r="J15" t="s" s="340">
-        <v>231</v>
-      </c>
-      <c r="K15" t="s" s="375">
-        <v>232</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="138">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s" s="139">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s" s="140">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D16" t="s" s="141">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E16" t="s" s="142">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s" s="143">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s" s="144">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H16" t="s" s="145">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I16" t="s" s="146">
-        <v>109</v>
-      </c>
-      <c r="J16" t="s" s="341">
-        <v>231</v>
-      </c>
-      <c r="K16" t="s" s="376">
-        <v>232</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="147">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s" s="148">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C17" t="s" s="149">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D17" t="s" s="150">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E17" t="s" s="151">
         <v>14</v>
@@ -3374,313 +3200,259 @@
         <v>15</v>
       </c>
       <c r="G17" t="s" s="153">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H17" t="s" s="154">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I17" t="s" s="155">
-        <v>115</v>
-      </c>
-      <c r="J17" t="s" s="342">
-        <v>231</v>
-      </c>
-      <c r="K17" t="s" s="377">
-        <v>233</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="156">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B18" t="s" s="157">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C18" t="s" s="158">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s" s="159">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E18" t="s" s="160">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F18" t="s" s="161">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s" s="162">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H18" t="s" s="163">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I18" t="s" s="164">
-        <v>122</v>
-      </c>
-      <c r="J18" t="s" s="343">
-        <v>231</v>
-      </c>
-      <c r="K18" t="s" s="378">
-        <v>232</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="165">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B19" t="s" s="166">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C19" t="s" s="167">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D19" t="s" s="168">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E19" t="s" s="169">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F19" t="s" s="170">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s" s="171">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H19" t="s" s="172">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I19" t="s" s="173">
-        <v>128</v>
-      </c>
-      <c r="J19" t="s" s="344">
-        <v>231</v>
-      </c>
-      <c r="K19" t="s" s="379">
-        <v>233</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="174">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B20" t="s" s="175">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C20" t="s" s="176">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D20" t="s" s="177">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E20" t="s" s="178">
         <v>14</v>
       </c>
       <c r="F20" t="s" s="179">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G20" t="s" s="180">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H20" t="s" s="181">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I20" t="s" s="182">
-        <v>135</v>
-      </c>
-      <c r="J20" t="s" s="345">
-        <v>231</v>
-      </c>
-      <c r="K20" t="s" s="380">
-        <v>233</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="183">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B21" t="s" s="184">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C21" t="s" s="185">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D21" t="s" s="186">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E21" t="s" s="187">
         <v>15</v>
       </c>
       <c r="F21" t="s" s="188">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G21" t="s" s="189">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H21" t="s" s="190">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="I21" t="s" s="191">
-        <v>141</v>
-      </c>
-      <c r="J21" t="s" s="346">
-        <v>231</v>
-      </c>
-      <c r="K21" t="s" s="381">
-        <v>232</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="192">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B22" t="s" s="193">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C22" t="s" s="194">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D22" t="s" s="195">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E22" t="s" s="196">
         <v>14</v>
       </c>
       <c r="F22" t="s" s="197">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s" s="198">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H22" t="s" s="199">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I22" t="s" s="200">
-        <v>147</v>
-      </c>
-      <c r="J22" t="s" s="347">
-        <v>231</v>
-      </c>
-      <c r="K22" t="s" s="382">
-        <v>232</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="201">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B23" t="s" s="202">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C23" t="s" s="203">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D23" t="s" s="204">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E23" t="s" s="205">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F23" t="s" s="206">
         <v>15</v>
       </c>
       <c r="G23" t="s" s="207">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H23" t="s" s="208">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="I23" t="s" s="209">
-        <v>153</v>
-      </c>
-      <c r="J23" t="s" s="348">
-        <v>231</v>
-      </c>
-      <c r="K23" t="s" s="383">
-        <v>233</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="210">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B24" t="s" s="211">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C24" t="s" s="212">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D24" t="s" s="213">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E24" t="s" s="214">
         <v>14</v>
       </c>
       <c r="F24" t="s" s="215">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s" s="216">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H24" t="s" s="217">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I24" t="s" s="218">
-        <v>159</v>
-      </c>
-      <c r="J24" t="s" s="349">
-        <v>231</v>
-      </c>
-      <c r="K24" t="s" s="384">
-        <v>232</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="219">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B25" t="s" s="220">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C25" t="s" s="221">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D25" t="s" s="222">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E25" t="s" s="223">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s" s="224">
         <v>15</v>
       </c>
       <c r="G25" t="s" s="225">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H25" t="s" s="226">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I25" t="s" s="227">
-        <v>165</v>
-      </c>
-      <c r="J25" t="s" s="350">
-        <v>231</v>
-      </c>
-      <c r="K25" t="s" s="385">
-        <v>232</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="228">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B26" t="s" s="229">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C26" t="s" s="230">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D26" t="s" s="231">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E26" t="s" s="232">
         <v>15</v>
@@ -3689,369 +3461,303 @@
         <v>15</v>
       </c>
       <c r="G26" t="s" s="234">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H26" t="s" s="235">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="I26" t="s" s="236">
-        <v>171</v>
-      </c>
-      <c r="J26" t="s" s="351">
-        <v>231</v>
-      </c>
-      <c r="K26" t="s" s="386">
-        <v>233</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="237">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B27" t="s" s="238">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C27" t="s" s="239">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D27" t="s" s="240">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E27" t="s" s="241">
         <v>14</v>
       </c>
       <c r="F27" t="s" s="242">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G27" t="s" s="243">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H27" t="s" s="244">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="I27" t="s" s="245">
-        <v>177</v>
-      </c>
-      <c r="J27" t="s" s="352">
-        <v>231</v>
-      </c>
-      <c r="K27" t="s" s="387">
-        <v>232</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="246">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B28" t="s" s="247">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C28" t="s" s="248">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D28" t="s" s="249">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E28" t="s" s="250">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F28" t="s" s="251">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s" s="252">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="H28" t="s" s="253">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="I28" t="s" s="254">
-        <v>183</v>
-      </c>
-      <c r="J28" t="s" s="353">
-        <v>231</v>
-      </c>
-      <c r="K28" t="s" s="388">
-        <v>232</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="255">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B29" t="s" s="256">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C29" t="s" s="257">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D29" t="s" s="258">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E29" t="s" s="259">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F29" t="s" s="260">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s" s="261">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H29" t="s" s="262">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="I29" t="s" s="263">
-        <v>189</v>
-      </c>
-      <c r="J29" t="s" s="354">
-        <v>231</v>
-      </c>
-      <c r="K29" t="s" s="389">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="264">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B30" t="s" s="265">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C30" t="s" s="266">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D30" t="s" s="267">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E30" t="s" s="268">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F30" t="s" s="269">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G30" t="s" s="270">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="H30" t="s" s="271">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="I30" t="s" s="272">
-        <v>195</v>
-      </c>
-      <c r="J30" t="s" s="355">
-        <v>231</v>
-      </c>
-      <c r="K30" t="s" s="390">
-        <v>233</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="273">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B31" t="s" s="274">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C31" t="s" s="275">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D31" t="s" s="276">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E31" t="s" s="277">
         <v>14</v>
       </c>
       <c r="F31" t="s" s="278">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G31" t="s" s="279">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="H31" t="s" s="280">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="I31" t="s" s="281">
-        <v>201</v>
-      </c>
-      <c r="J31" t="s" s="356">
-        <v>231</v>
-      </c>
-      <c r="K31" t="s" s="391">
-        <v>232</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="282">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B32" t="s" s="283">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C32" t="s" s="284">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D32" t="s" s="285">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E32" t="s" s="286">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F32" t="s" s="287">
         <v>15</v>
       </c>
       <c r="G32" t="s" s="288">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H32" t="s" s="289">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="I32" t="s" s="290">
-        <v>208</v>
-      </c>
-      <c r="J32" t="s" s="357">
-        <v>231</v>
-      </c>
-      <c r="K32" t="s" s="392">
-        <v>232</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="291">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B33" t="s" s="292">
+        <v>215</v>
+      </c>
+      <c r="C33" t="s" s="293">
+        <v>215</v>
+      </c>
+      <c r="D33" t="s" s="294">
+        <v>216</v>
+      </c>
+      <c r="E33" t="s" s="295">
         <v>210</v>
-      </c>
-      <c r="C33" t="s" s="293">
-        <v>210</v>
-      </c>
-      <c r="D33" t="s" s="294">
-        <v>211</v>
-      </c>
-      <c r="E33" t="s" s="295">
-        <v>205</v>
       </c>
       <c r="F33" t="s" s="296">
         <v>15</v>
       </c>
       <c r="G33" t="s" s="297">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="H33" t="s" s="298">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="I33" t="s" s="299">
-        <v>214</v>
-      </c>
-      <c r="J33" t="s" s="358">
-        <v>231</v>
-      </c>
-      <c r="K33" t="s" s="393">
-        <v>233</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="300">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B34" t="s" s="301">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C34" t="s" s="302">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D34" t="s" s="303">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E34" t="s" s="304">
         <v>15</v>
       </c>
       <c r="F34" t="s" s="305">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G34" t="s" s="306">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="H34" t="s" s="307">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I34" t="s" s="308">
-        <v>219</v>
-      </c>
-      <c r="J34" t="s" s="359">
-        <v>231</v>
-      </c>
-      <c r="K34" t="s" s="394">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="309">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B35" t="s" s="310">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C35" t="s" s="311">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D35" t="s" s="312">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E35" t="s" s="313">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F35" t="s" s="314">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G35" t="s" s="315">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="H35" t="s" s="316">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I35" t="s" s="317">
-        <v>224</v>
-      </c>
-      <c r="J35" t="s" s="360">
-        <v>231</v>
-      </c>
-      <c r="K35" t="s" s="395">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="318">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B36" t="s" s="319">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C36" t="s" s="320">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D36" t="s" s="321">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E36" t="s" s="322">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F36" t="s" s="323">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s" s="324">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="H36" t="s" s="325">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="I36" t="s" s="326">
-        <v>230</v>
-      </c>
-      <c r="J36" t="s" s="361">
-        <v>231</v>
-      </c>
-      <c r="K36" t="s" s="396">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
